--- a/夺金伤害计算模拟/斩杀计算/S6夺金武器.xlsx
+++ b/夺金伤害计算模拟/斩杀计算/S6夺金武器.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor2\Desktop\三角洲行动\三角洲行动计算模拟器\夺金伤害计算模拟\通用武器\伤害计算\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor2\Desktop\三角洲行动\三角洲行动计算模拟器\夺金伤害计算模拟\通用武器\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC8ED07-CCCF-41BC-AC55-6FC3EAF8CFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B708A8D1-3033-4A32-893F-E7662323C0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{BDBE695F-DB49-4FEC-86E7-446F729986E9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="150">
   <si>
     <t>鉴于官方存在改内容不写入公告的行为，当游戏内数据与表格记录冲突时，以游戏内为准，并私聊我们更新表格数据</t>
   </si>
@@ -514,6 +514,17 @@
   </si>
   <si>
     <t>7.62x39mm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR-25射手步枪(短枪管)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.62x52mm</t>
+  </si>
+  <si>
+    <t>M250通用机枪(长枪管)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -592,7 +603,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -604,9 +615,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -949,13 +957,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B893C843-0172-4B08-AE49-02FE7F911746}">
-  <dimension ref="A1:AA94"/>
+  <dimension ref="A1:AA96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D64" sqref="D64"/>
+      <selection pane="bottomRight" activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.77734375" defaultRowHeight="18" customHeight="1"/>
@@ -966,13 +974,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18" customHeight="1">
-      <c r="A1" s="1"/>
+      <c r="A1" s="2"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
+      <c r="G1" s="4"/>
       <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1059,7 +1068,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="18" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="1"/>
@@ -1153,7 +1162,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="18" customHeight="1">
-      <c r="A5" s="4"/>
+      <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
@@ -1236,7 +1245,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="18" customHeight="1">
-      <c r="A6" s="4"/>
+      <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
         <v>31</v>
       </c>
@@ -1319,7 +1328,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="18" customHeight="1">
-      <c r="A7" s="4"/>
+      <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1402,7 +1411,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="18" customHeight="1">
-      <c r="A8" s="4"/>
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1485,7 +1494,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="18" customHeight="1">
-      <c r="A9" s="4"/>
+      <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
         <v>36</v>
       </c>
@@ -1568,7 +1577,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="18" customHeight="1">
-      <c r="A10" s="4"/>
+      <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
         <v>38</v>
       </c>
@@ -1651,7 +1660,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="18" customHeight="1">
-      <c r="A11" s="4"/>
+      <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
@@ -1734,7 +1743,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="18" customHeight="1">
-      <c r="A12" s="4"/>
+      <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
         <v>40</v>
       </c>
@@ -1817,7 +1826,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="18" customHeight="1">
-      <c r="A13" s="4"/>
+      <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
         <v>42</v>
       </c>
@@ -1900,7 +1909,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="18" customHeight="1">
-      <c r="A14" s="4"/>
+      <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
@@ -1983,7 +1992,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="18" customHeight="1">
-      <c r="A15" s="4"/>
+      <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>45</v>
       </c>
@@ -2066,7 +2075,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="18" customHeight="1">
-      <c r="A16" s="4"/>
+      <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>47</v>
       </c>
@@ -2149,7 +2158,7 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="18" customHeight="1">
-      <c r="A17" s="4"/>
+      <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>48</v>
       </c>
@@ -2232,7 +2241,7 @@
       </c>
     </row>
     <row r="18" spans="1:27" ht="18" customHeight="1">
-      <c r="A18" s="4"/>
+      <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>50</v>
       </c>
@@ -2315,7 +2324,7 @@
       </c>
     </row>
     <row r="19" spans="1:27" ht="18" customHeight="1">
-      <c r="A19" s="4"/>
+      <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>52</v>
       </c>
@@ -2398,7 +2407,7 @@
       </c>
     </row>
     <row r="20" spans="1:27" ht="18" customHeight="1">
-      <c r="A20" s="4"/>
+      <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>54</v>
       </c>
@@ -2481,7 +2490,7 @@
       </c>
     </row>
     <row r="21" spans="1:27" ht="18" customHeight="1">
-      <c r="A21" s="4"/>
+      <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>55</v>
       </c>
@@ -2564,7 +2573,7 @@
       </c>
     </row>
     <row r="22" spans="1:27" ht="18" customHeight="1">
-      <c r="A22" s="4"/>
+      <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>56</v>
       </c>
@@ -2647,7 +2656,7 @@
       </c>
     </row>
     <row r="23" spans="1:27" ht="18" customHeight="1">
-      <c r="A23" s="4"/>
+      <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>57</v>
       </c>
@@ -2730,7 +2739,7 @@
       </c>
     </row>
     <row r="24" spans="1:27" ht="18" customHeight="1">
-      <c r="A24" s="4"/>
+      <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>59</v>
       </c>
@@ -2813,7 +2822,7 @@
       </c>
     </row>
     <row r="25" spans="1:27" ht="18" customHeight="1">
-      <c r="A25" s="4"/>
+      <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>60</v>
       </c>
@@ -2896,7 +2905,7 @@
       </c>
     </row>
     <row r="26" spans="1:27" ht="18" customHeight="1">
-      <c r="A26" s="4"/>
+      <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>61</v>
       </c>
@@ -2979,7 +2988,7 @@
       </c>
     </row>
     <row r="27" spans="1:27" ht="18" customHeight="1">
-      <c r="A27" s="4"/>
+      <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>62</v>
       </c>
@@ -3065,7 +3074,7 @@
       </c>
     </row>
     <row r="28" spans="1:27" ht="18" customHeight="1">
-      <c r="A28" s="4"/>
+      <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>63</v>
       </c>
@@ -3088,18 +3097,18 @@
         <v>575</v>
       </c>
       <c r="I28" s="3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" si="0"/>
-        <v>386.67</v>
+        <v>413.33</v>
       </c>
       <c r="K28" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L28" s="3">
         <f t="shared" si="1"/>
-        <v>426.67</v>
+        <v>440</v>
       </c>
       <c r="M28" s="3">
         <v>1.9</v>
@@ -3148,35 +3157,35 @@
       </c>
     </row>
     <row r="29" spans="1:27" ht="18" customHeight="1">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
     </row>
     <row r="30" spans="1:27" ht="18" customHeight="1">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3263,7 +3272,6 @@
       </c>
     </row>
     <row r="32" spans="1:27" ht="18" customHeight="1">
-      <c r="A32" s="5"/>
       <c r="B32" s="1" t="s">
         <v>67</v>
       </c>
@@ -3346,7 +3354,6 @@
       </c>
     </row>
     <row r="33" spans="1:27" ht="18" customHeight="1">
-      <c r="A33" s="5"/>
       <c r="B33" s="1" t="s">
         <v>68</v>
       </c>
@@ -3433,7 +3440,6 @@
       </c>
     </row>
     <row r="34" spans="1:27" ht="18" customHeight="1">
-      <c r="A34" s="5"/>
       <c r="B34" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,7 +3522,6 @@
       </c>
     </row>
     <row r="35" spans="1:27" ht="18" customHeight="1">
-      <c r="A35" s="5"/>
       <c r="B35" s="1" t="s">
         <v>71</v>
       </c>
@@ -3599,7 +3604,6 @@
       </c>
     </row>
     <row r="36" spans="1:27" ht="18" customHeight="1">
-      <c r="A36" s="5"/>
       <c r="B36" s="1" t="s">
         <v>72</v>
       </c>
@@ -3682,7 +3686,6 @@
       </c>
     </row>
     <row r="37" spans="1:27" ht="18" customHeight="1">
-      <c r="A37" s="5"/>
       <c r="B37" s="1" t="s">
         <v>73</v>
       </c>
@@ -3765,7 +3768,6 @@
       </c>
     </row>
     <row r="38" spans="1:27" ht="18" customHeight="1">
-      <c r="A38" s="5"/>
       <c r="B38" s="1" t="s">
         <v>75</v>
       </c>
@@ -3848,7 +3850,6 @@
       </c>
     </row>
     <row r="39" spans="1:27" ht="18" customHeight="1">
-      <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
         <v>76</v>
       </c>
@@ -3931,7 +3932,6 @@
       </c>
     </row>
     <row r="40" spans="1:27" ht="18" customHeight="1">
-      <c r="A40" s="5"/>
       <c r="B40" s="1" t="s">
         <v>77</v>
       </c>
@@ -4014,7 +4014,6 @@
       </c>
     </row>
     <row r="41" spans="1:27" ht="18" customHeight="1">
-      <c r="A41" s="5"/>
       <c r="B41" s="1" t="s">
         <v>78</v>
       </c>
@@ -4097,7 +4096,6 @@
       </c>
     </row>
     <row r="42" spans="1:27" ht="18" customHeight="1">
-      <c r="A42" s="5"/>
       <c r="B42" s="1" t="s">
         <v>80</v>
       </c>
@@ -4180,32 +4178,32 @@
       </c>
     </row>
     <row r="43" spans="1:27" ht="18" customHeight="1">
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
-      <c r="AA43" s="6"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
     </row>
     <row r="44" spans="1:27" ht="18" customHeight="1">
       <c r="A44" s="1" t="s">
@@ -4462,32 +4460,32 @@
       </c>
     </row>
     <row r="48" spans="1:27" ht="18" customHeight="1">
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
-      <c r="X48" s="6"/>
-      <c r="Y48" s="6"/>
-      <c r="Z48" s="6"/>
-      <c r="AA48" s="6"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
     </row>
     <row r="49" spans="1:27" ht="18" customHeight="1">
       <c r="A49" s="3" t="s">
@@ -4495,7 +4493,7 @@
       </c>
     </row>
     <row r="50" spans="1:27" ht="18" customHeight="1">
-      <c r="A50" s="4"/>
+      <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
         <v>89</v>
       </c>
@@ -4521,14 +4519,14 @@
         <v>32</v>
       </c>
       <c r="J50" s="3">
-        <f t="shared" ref="J50:J56" si="4">ROUND(I50*G50/60,2)</f>
+        <f t="shared" ref="J50:J57" si="4">ROUND(I50*G50/60,2)</f>
         <v>418.67</v>
       </c>
       <c r="K50" s="3">
         <v>38</v>
       </c>
       <c r="L50" s="3">
-        <f t="shared" ref="L50:L56" si="5">ROUND(K50*G50/60,2)</f>
+        <f t="shared" ref="L50:L57" si="5">ROUND(K50*G50/60,2)</f>
         <v>497.17</v>
       </c>
       <c r="M50" s="3">
@@ -4578,7 +4576,6 @@
       </c>
     </row>
     <row r="51" spans="1:27" ht="18" customHeight="1">
-      <c r="A51" s="5"/>
       <c r="B51" s="1" t="s">
         <v>91</v>
       </c>
@@ -4661,7 +4658,6 @@
       </c>
     </row>
     <row r="52" spans="1:27" ht="18" customHeight="1">
-      <c r="A52" s="5"/>
       <c r="B52" s="1" t="s">
         <v>92</v>
       </c>
@@ -4746,7 +4742,6 @@
       </c>
     </row>
     <row r="53" spans="1:27" ht="18" customHeight="1">
-      <c r="A53" s="5"/>
       <c r="B53" s="1" t="s">
         <v>93</v>
       </c>
@@ -4829,7 +4824,6 @@
       </c>
     </row>
     <row r="54" spans="1:27" ht="18" customHeight="1">
-      <c r="A54" s="5"/>
       <c r="B54" s="1" t="s">
         <v>95</v>
       </c>
@@ -4912,288 +4906,287 @@
       </c>
     </row>
     <row r="55" spans="1:27" ht="18" customHeight="1">
-      <c r="A55" s="5"/>
       <c r="B55" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3">
+        <v>100</v>
+      </c>
+      <c r="G55" s="3">
+        <v>550</v>
+      </c>
+      <c r="H55" s="3">
+        <v>630</v>
+      </c>
+      <c r="I55" s="3">
+        <v>55</v>
+      </c>
+      <c r="J55" s="3">
+        <f t="shared" ref="J55" si="6">ROUND(I55*G55/60,2)</f>
+        <v>504.17</v>
+      </c>
+      <c r="K55" s="3">
+        <v>53</v>
+      </c>
+      <c r="L55" s="3">
+        <f t="shared" ref="L55" si="7">ROUND(K55*G55/60,2)</f>
+        <v>485.83</v>
+      </c>
+      <c r="M55" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="N55" s="3">
+        <v>1</v>
+      </c>
+      <c r="O55" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="P55" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R55" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S55" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="T55" s="3">
+        <v>40</v>
+      </c>
+      <c r="U55" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="V55" s="3">
+        <v>70</v>
+      </c>
+      <c r="W55" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="X55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA55" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" ht="18" customHeight="1">
+      <c r="B56" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E55" s="1">
-        <v>1</v>
-      </c>
-      <c r="F55" s="3">
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3">
         <v>50</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G56" s="3">
         <v>858</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H56" s="3">
         <v>575</v>
       </c>
-      <c r="I55" s="3">
+      <c r="I56" s="3">
         <v>30</v>
       </c>
-      <c r="J55" s="3">
+      <c r="J56" s="3">
         <f t="shared" si="4"/>
         <v>429</v>
       </c>
-      <c r="K55" s="3">
+      <c r="K56" s="3">
         <v>38</v>
       </c>
-      <c r="L55" s="3">
+      <c r="L56" s="3">
         <f t="shared" si="5"/>
         <v>543.4</v>
       </c>
-      <c r="M55" s="3">
+      <c r="M56" s="3">
         <v>1.9</v>
       </c>
-      <c r="N55" s="3">
-        <v>1</v>
-      </c>
-      <c r="O55" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="P55" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="Q55" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="R55" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="S55" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="T55" s="3">
+      <c r="N56" s="3">
+        <v>1</v>
+      </c>
+      <c r="O56" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="P56" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R56" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S56" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="T56" s="3">
         <v>40</v>
       </c>
-      <c r="U55" s="3">
+      <c r="U56" s="3">
         <v>0.85</v>
       </c>
-      <c r="V55" s="3">
+      <c r="V56" s="3">
         <v>70</v>
       </c>
-      <c r="W55" s="3">
+      <c r="W56" s="3">
         <v>0.7</v>
       </c>
-      <c r="X55" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y55" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z55" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA55" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27" ht="18" customHeight="1">
-      <c r="A56" s="5"/>
-      <c r="B56" s="1" t="s">
+      <c r="X56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA56" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" ht="18" customHeight="1">
+      <c r="B57" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E56" s="1">
-        <v>1</v>
-      </c>
-      <c r="F56" s="3">
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3">
         <v>50</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G57" s="3">
         <v>669</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H57" s="3">
         <v>630</v>
       </c>
-      <c r="I56" s="3">
+      <c r="I57" s="3">
         <v>45</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J57" s="3">
         <f t="shared" si="4"/>
         <v>501.75</v>
       </c>
-      <c r="K56" s="3">
+      <c r="K57" s="3">
         <v>42</v>
       </c>
-      <c r="L56" s="3">
+      <c r="L57" s="3">
         <f t="shared" si="5"/>
         <v>468.3</v>
       </c>
-      <c r="M56" s="3">
+      <c r="M57" s="3">
         <v>1.9</v>
       </c>
-      <c r="N56" s="3">
-        <v>1</v>
-      </c>
-      <c r="O56" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="P56" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="Q56" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="R56" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="S56" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="T56" s="3">
+      <c r="N57" s="3">
+        <v>1</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="T57" s="3">
         <v>40</v>
       </c>
-      <c r="U56" s="3">
+      <c r="U57" s="3">
         <v>0.85</v>
       </c>
-      <c r="V56" s="3">
+      <c r="V57" s="3">
         <v>70</v>
       </c>
-      <c r="W56" s="3">
+      <c r="W57" s="3">
         <v>0.7</v>
       </c>
-      <c r="X56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA56" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27" ht="18" customHeight="1">
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
-      <c r="U57" s="6"/>
-      <c r="V57" s="6"/>
-      <c r="W57" s="6"/>
-      <c r="X57" s="6"/>
-      <c r="Y57" s="6"/>
-      <c r="Z57" s="6"/>
-      <c r="AA57" s="6"/>
+      <c r="X57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA57" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="58" spans="1:27" ht="18" customHeight="1">
-      <c r="A58" s="4" t="s">
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
+      <c r="AA58" s="5"/>
+    </row>
+    <row r="59" spans="1:27" ht="18" customHeight="1">
+      <c r="A59" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="18" customHeight="1">
-      <c r="B59" s="3" t="s">
+    <row r="60" spans="1:27" ht="18" customHeight="1">
+      <c r="B60" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E59" s="3">
-        <v>2</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>750</v>
-      </c>
-      <c r="I59" s="3">
-        <v>70</v>
-      </c>
-      <c r="J59" s="3">
-        <v>133</v>
-      </c>
-      <c r="K59" s="3">
-        <v>25</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="R59" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="S59" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="T59" s="3">
-        <v>30</v>
-      </c>
-      <c r="U59" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="V59" s="3">
-        <v>50</v>
-      </c>
-      <c r="W59" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="X59" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y59" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z59" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA59" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27" ht="18" customHeight="1">
-      <c r="A60" s="4"/>
-      <c r="B60" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>101</v>
@@ -5208,16 +5201,16 @@
         <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H60" s="3">
         <v>750</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="J60" s="3">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="K60" s="3">
         <v>25</v>
@@ -5226,34 +5219,34 @@
         <v>103</v>
       </c>
       <c r="M60" s="3">
-        <v>141</v>
+        <v>1.9</v>
       </c>
       <c r="N60" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="O60" s="3">
-        <v>67</v>
+        <v>0.9</v>
       </c>
       <c r="P60" s="3">
-        <v>34</v>
+        <v>0.45</v>
       </c>
       <c r="Q60" s="3">
-        <v>34</v>
+        <v>0.45</v>
       </c>
       <c r="R60" s="3">
-        <v>34</v>
+        <v>0.45</v>
       </c>
       <c r="S60" s="3">
-        <v>34</v>
+        <v>0.45</v>
       </c>
       <c r="T60" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="U60" s="3">
         <v>0.9</v>
       </c>
       <c r="V60" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="W60" s="3">
         <v>0.75</v>
@@ -5272,9 +5265,9 @@
       </c>
     </row>
     <row r="61" spans="1:27" ht="18" customHeight="1">
-      <c r="A61" s="4"/>
+      <c r="A61" s="1"/>
       <c r="B61" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>101</v>
@@ -5289,52 +5282,52 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="H61" s="3">
         <v>750</v>
       </c>
       <c r="I61" s="3">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>112.5</v>
+        <v>141</v>
       </c>
       <c r="K61" s="3">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="L61" s="3" t="s">
         <v>103</v>
       </c>
       <c r="M61" s="3">
-        <v>1.5</v>
+        <v>141</v>
       </c>
       <c r="N61" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>0.9</v>
+        <v>67</v>
       </c>
       <c r="P61" s="3">
-        <v>0.45</v>
+        <v>34</v>
       </c>
       <c r="Q61" s="3">
-        <v>0.45</v>
+        <v>34</v>
       </c>
       <c r="R61" s="3">
-        <v>0.45</v>
+        <v>34</v>
       </c>
       <c r="S61" s="3">
-        <v>0.45</v>
+        <v>34</v>
       </c>
       <c r="T61" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="U61" s="3">
         <v>0.9</v>
       </c>
       <c r="V61" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W61" s="3">
         <v>0.75</v>
@@ -5353,74 +5346,72 @@
       </c>
     </row>
     <row r="62" spans="1:27" ht="18" customHeight="1">
-      <c r="A62" s="4"/>
-      <c r="B62" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E62" s="1">
+      <c r="A62" s="1"/>
+      <c r="B62" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E62" s="3">
         <v>2</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H62" s="3">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="I62" s="3">
+        <v>75</v>
+      </c>
+      <c r="J62" s="3">
+        <v>112.5</v>
+      </c>
+      <c r="K62" s="3">
+        <v>59</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M62" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="N62" s="3">
+        <v>1</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="T62" s="3">
+        <v>30</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="V62" s="3">
         <v>50</v>
       </c>
-      <c r="J62" s="3">
-        <f t="shared" ref="J62:J69" si="6">ROUND(I62*G62/60,2)</f>
-        <v>250</v>
-      </c>
-      <c r="K62" s="3">
-        <v>55</v>
-      </c>
-      <c r="L62" s="3">
-        <f t="shared" ref="L62:L69" si="7">ROUND(K62*G62/60,2)</f>
-        <v>275</v>
-      </c>
-      <c r="M62" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="N62" s="3">
-        <v>1</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="S62" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="T62" s="3">
-        <v>90</v>
-      </c>
-      <c r="U62" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="V62" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W62" s="1" t="s">
-        <v>29</v>
+      <c r="W62" s="3">
+        <v>0.75</v>
       </c>
       <c r="X62" s="1" t="s">
         <v>29</v>
@@ -5436,9 +5427,9 @@
       </c>
     </row>
     <row r="63" spans="1:27" ht="18" customHeight="1">
-      <c r="A63" s="4"/>
+      <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>46</v>
@@ -5453,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="3">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="H63" s="3">
         <v>550</v>
@@ -5462,18 +5453,18 @@
         <v>50</v>
       </c>
       <c r="J63" s="3">
-        <f t="shared" si="6"/>
-        <v>217.5</v>
+        <f t="shared" ref="J63:J71" si="8">ROUND(I63*G63/60,2)</f>
+        <v>250</v>
       </c>
       <c r="K63" s="3">
         <v>55</v>
       </c>
       <c r="L63" s="3">
-        <f t="shared" si="7"/>
-        <v>239.25</v>
+        <f t="shared" ref="L63:L71" si="9">ROUND(K63*G63/60,2)</f>
+        <v>275</v>
       </c>
       <c r="M63" s="3">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="N63" s="3">
         <v>1</v>
@@ -5519,9 +5510,9 @@
       </c>
     </row>
     <row r="64" spans="1:27" ht="18" customHeight="1">
-      <c r="A64" s="4"/>
+      <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>46</v>
@@ -5536,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="3">
-        <v>364</v>
+        <v>261</v>
       </c>
       <c r="H64" s="3">
         <v>550</v>
@@ -5545,36 +5536,36 @@
         <v>50</v>
       </c>
       <c r="J64" s="3">
-        <f t="shared" si="6"/>
-        <v>303.33</v>
+        <f t="shared" si="8"/>
+        <v>217.5</v>
       </c>
       <c r="K64" s="3">
         <v>55</v>
       </c>
       <c r="L64" s="3">
-        <f t="shared" si="7"/>
-        <v>333.67</v>
+        <f t="shared" si="9"/>
+        <v>239.25</v>
       </c>
       <c r="M64" s="3">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="N64" s="3">
         <v>1</v>
       </c>
       <c r="O64" s="3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P64" s="3">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="Q64" s="3">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="R64" s="3">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="S64" s="3">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="T64" s="3">
         <v>90</v>
@@ -5602,12 +5593,12 @@
       </c>
     </row>
     <row r="65" spans="1:27" ht="18" customHeight="1">
-      <c r="A65" s="4"/>
+      <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>86</v>
@@ -5619,57 +5610,57 @@
         <v>0</v>
       </c>
       <c r="G65" s="3">
-        <v>510</v>
+        <v>364</v>
       </c>
       <c r="H65" s="3">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="I65" s="3">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J65" s="3">
-        <f t="shared" si="6"/>
-        <v>374</v>
+        <f t="shared" si="8"/>
+        <v>303.33</v>
       </c>
       <c r="K65" s="3">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="L65" s="3">
-        <f t="shared" si="7"/>
-        <v>357</v>
+        <f t="shared" si="9"/>
+        <v>333.67</v>
       </c>
       <c r="M65" s="3">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="N65" s="3">
         <v>1</v>
       </c>
       <c r="O65" s="3">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="P65" s="3">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Q65" s="3">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="R65" s="3">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="S65" s="3">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="T65" s="3">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="U65" s="3">
         <v>0.85</v>
       </c>
-      <c r="V65" s="3">
-        <v>90</v>
-      </c>
-      <c r="W65" s="3">
-        <v>0.7</v>
+      <c r="V65" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W65" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="X65" s="1" t="s">
         <v>29</v>
@@ -5685,73 +5676,73 @@
       </c>
     </row>
     <row r="66" spans="1:27" ht="18" customHeight="1">
-      <c r="A66" s="4"/>
+      <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="E66" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
       </c>
       <c r="G66" s="3">
-        <v>727</v>
+        <v>448</v>
       </c>
       <c r="H66" s="3">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="I66" s="3">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="J66" s="3">
-        <f t="shared" si="6"/>
-        <v>472.55</v>
+        <f t="shared" si="8"/>
+        <v>410.67</v>
       </c>
       <c r="K66" s="3">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="L66" s="3">
-        <f t="shared" si="7"/>
-        <v>496.78</v>
+        <f t="shared" si="9"/>
+        <v>410.67</v>
       </c>
       <c r="M66" s="3">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="N66" s="3">
         <v>1</v>
       </c>
       <c r="O66" s="3">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="P66" s="3">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Q66" s="3">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="R66" s="3">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="S66" s="3">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="T66" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="U66" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="V66" s="3">
-        <v>70</v>
-      </c>
-      <c r="W66" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="V66" s="1">
+        <v>80</v>
+      </c>
+      <c r="W66" s="1">
         <v>0.7</v>
       </c>
       <c r="X66" s="1" t="s">
@@ -5768,12 +5759,12 @@
       </c>
     </row>
     <row r="67" spans="1:27" ht="18" customHeight="1">
-      <c r="A67" s="4"/>
+      <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>86</v>
@@ -5785,27 +5776,27 @@
         <v>0</v>
       </c>
       <c r="G67" s="3">
-        <v>300</v>
+        <v>510</v>
       </c>
       <c r="H67" s="3">
-        <v>500</v>
+        <v>575</v>
       </c>
       <c r="I67" s="3">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J67" s="3">
-        <f t="shared" si="6"/>
-        <v>280</v>
+        <f t="shared" si="8"/>
+        <v>374</v>
       </c>
       <c r="K67" s="3">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="L67" s="3">
-        <f t="shared" si="7"/>
-        <v>280</v>
+        <f t="shared" si="9"/>
+        <v>357</v>
       </c>
       <c r="M67" s="3">
-        <v>2.2000000000000002</v>
+        <v>1.9</v>
       </c>
       <c r="N67" s="3">
         <v>1</v>
@@ -5826,16 +5817,16 @@
         <v>0.4</v>
       </c>
       <c r="T67" s="3">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="U67" s="3">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="V67" s="3">
         <v>90</v>
       </c>
       <c r="W67" s="3">
-        <v>0.625</v>
+        <v>0.7</v>
       </c>
       <c r="X67" s="1" t="s">
         <v>29</v>
@@ -5851,41 +5842,41 @@
       </c>
     </row>
     <row r="68" spans="1:27" ht="18" customHeight="1">
-      <c r="A68" s="4"/>
+      <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="E68" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" s="3">
         <v>0</v>
       </c>
       <c r="G68" s="3">
-        <v>480</v>
+        <v>727</v>
       </c>
       <c r="H68" s="3">
-        <v>330</v>
+        <v>575</v>
       </c>
       <c r="I68" s="3">
-        <v>35</v>
-      </c>
-      <c r="J68" s="1">
-        <f t="shared" si="6"/>
-        <v>280</v>
+        <v>39</v>
+      </c>
+      <c r="J68" s="3">
+        <f t="shared" si="8"/>
+        <v>472.55</v>
       </c>
       <c r="K68" s="3">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="L68" s="3">
-        <f t="shared" si="7"/>
-        <v>384</v>
+        <f t="shared" si="9"/>
+        <v>496.78</v>
       </c>
       <c r="M68" s="3">
         <v>1.9</v>
@@ -5894,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="O68" s="3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P68" s="3">
         <v>0.4</v>
@@ -5902,23 +5893,23 @@
       <c r="Q68" s="3">
         <v>0.4</v>
       </c>
-      <c r="R68" s="1">
+      <c r="R68" s="3">
         <v>0.4</v>
       </c>
       <c r="S68" s="3">
         <v>0.4</v>
       </c>
       <c r="T68" s="3">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="U68" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="V68" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W68" s="1" t="s">
-        <v>29</v>
+        <v>0.8</v>
+      </c>
+      <c r="V68" s="3">
+        <v>70</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0.7</v>
       </c>
       <c r="X68" s="1" t="s">
         <v>29</v>
@@ -5934,12 +5925,12 @@
       </c>
     </row>
     <row r="69" spans="1:27" ht="18" customHeight="1">
-      <c r="A69" s="4"/>
+      <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>86</v>
@@ -5951,274 +5942,276 @@
         <v>0</v>
       </c>
       <c r="G69" s="3">
+        <v>300</v>
+      </c>
+      <c r="H69" s="3">
+        <v>500</v>
+      </c>
+      <c r="I69" s="3">
+        <v>56</v>
+      </c>
+      <c r="J69" s="3">
+        <f t="shared" si="8"/>
+        <v>280</v>
+      </c>
+      <c r="K69" s="3">
+        <v>56</v>
+      </c>
+      <c r="L69" s="3">
+        <f t="shared" si="9"/>
+        <v>280</v>
+      </c>
+      <c r="M69" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N69" s="3">
+        <v>1</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="T69" s="3">
+        <v>70</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="V69" s="3">
+        <v>90</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="X69" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y69" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z69" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA69" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" ht="18" customHeight="1">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E70" s="1">
+        <v>2</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>480</v>
+      </c>
+      <c r="H70" s="3">
+        <v>330</v>
+      </c>
+      <c r="I70" s="3">
+        <v>35</v>
+      </c>
+      <c r="J70" s="1">
+        <f t="shared" si="8"/>
+        <v>280</v>
+      </c>
+      <c r="K70" s="3">
+        <v>48</v>
+      </c>
+      <c r="L70" s="3">
+        <f t="shared" si="9"/>
+        <v>384</v>
+      </c>
+      <c r="M70" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="N70" s="3">
+        <v>1</v>
+      </c>
+      <c r="O70" s="3">
+        <v>1</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R70" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="T70" s="3">
+        <v>120</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="V70" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W70" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X70" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y70" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z70" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA70" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" ht="18" customHeight="1">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E71" s="1">
+        <v>2</v>
+      </c>
+      <c r="F71" s="3">
+        <v>0</v>
+      </c>
+      <c r="G71" s="3">
         <v>590</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H71" s="3">
         <v>650</v>
       </c>
-      <c r="I69" s="3">
+      <c r="I71" s="3">
         <v>32</v>
       </c>
-      <c r="J69" s="3">
-        <f t="shared" si="6"/>
+      <c r="J71" s="3">
+        <f t="shared" si="8"/>
         <v>314.67</v>
       </c>
-      <c r="K69" s="3">
+      <c r="K71" s="3">
         <v>38</v>
       </c>
-      <c r="L69" s="3">
-        <f t="shared" si="7"/>
+      <c r="L71" s="3">
+        <f t="shared" si="9"/>
         <v>373.67</v>
       </c>
-      <c r="M69" s="3">
+      <c r="M71" s="3">
         <v>1.9</v>
       </c>
-      <c r="N69" s="3">
-        <v>1</v>
-      </c>
-      <c r="O69" s="3">
-        <v>1</v>
-      </c>
-      <c r="P69" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="Q69" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="R69" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="S69" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="T69" s="3">
+      <c r="N71" s="3">
+        <v>1</v>
+      </c>
+      <c r="O71" s="3">
+        <v>1</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R71" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="T71" s="3">
         <v>90</v>
       </c>
-      <c r="U69" s="3">
+      <c r="U71" s="3">
         <v>0.85</v>
       </c>
-      <c r="V69" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W69" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="X69" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y69" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z69" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA69" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27" ht="18" customHeight="1">
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
-      <c r="U70" s="6"/>
-      <c r="V70" s="6"/>
-      <c r="W70" s="6"/>
-      <c r="X70" s="6"/>
-      <c r="Y70" s="6"/>
-      <c r="Z70" s="6"/>
-      <c r="AA70" s="6"/>
-    </row>
-    <row r="71" spans="1:27" ht="18" customHeight="1">
-      <c r="A71" s="4" t="s">
+      <c r="V71" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W71" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X71" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y71" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z71" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA71" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" ht="18" customHeight="1">
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
+      <c r="V72" s="5"/>
+      <c r="W72" s="5"/>
+      <c r="X72" s="5"/>
+      <c r="Y72" s="5"/>
+      <c r="Z72" s="5"/>
+      <c r="AA72" s="5"/>
+    </row>
+    <row r="73" spans="1:27" ht="18" customHeight="1">
+      <c r="A73" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:27" ht="18" customHeight="1">
-      <c r="B72" s="1" t="s">
+    <row r="74" spans="1:27" ht="18" customHeight="1">
+      <c r="B74" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E72" s="1">
-        <v>1</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>35</v>
-      </c>
-      <c r="H72" s="3">
-        <v>750</v>
-      </c>
-      <c r="I72" s="3">
-        <v>100</v>
-      </c>
-      <c r="J72" s="3">
-        <f>I72*M72</f>
-        <v>190</v>
-      </c>
-      <c r="K72" s="3">
-        <v>10</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M72" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="N72" s="3">
-        <v>1</v>
-      </c>
-      <c r="O72" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="P72" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="R72" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="S72" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="T72" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U72" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V72" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W72" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="X72" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y72" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z72" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA72" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27" ht="18" customHeight="1">
-      <c r="A73" s="5"/>
-      <c r="B73" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E73" s="1">
-        <v>1</v>
-      </c>
-      <c r="F73" s="3">
-        <v>0</v>
-      </c>
-      <c r="G73" s="3">
-        <v>48</v>
-      </c>
-      <c r="H73" s="3">
-        <v>650</v>
-      </c>
-      <c r="I73" s="3">
-        <v>61</v>
-      </c>
-      <c r="J73" s="3">
-        <f>I73*M73</f>
-        <v>152.5</v>
-      </c>
-      <c r="K73" s="3">
-        <v>58</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M73" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="N73" s="3">
-        <v>1</v>
-      </c>
-      <c r="O73" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="P73" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="Q73" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="R73" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="S73" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="T73" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U73" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V73" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W73" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="X73" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y73" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z73" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA73" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27" ht="18" customHeight="1">
-      <c r="A74" s="5"/>
-      <c r="B74" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>117</v>
@@ -6230,26 +6223,26 @@
         <v>0</v>
       </c>
       <c r="G74" s="3">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="H74" s="3">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="I74" s="3">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="J74" s="3">
         <f>I74*M74</f>
-        <v>152.5</v>
+        <v>190</v>
       </c>
       <c r="K74" s="3">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M74" s="3">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="N74" s="3">
         <v>1</v>
@@ -6295,12 +6288,11 @@
       </c>
     </row>
     <row r="75" spans="1:27" ht="18" customHeight="1">
-      <c r="A75" s="5"/>
       <c r="B75" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>117</v>
@@ -6312,17 +6304,17 @@
         <v>0</v>
       </c>
       <c r="G75" s="3">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H75" s="3">
         <v>650</v>
       </c>
       <c r="I75" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J75" s="3">
         <f>I75*M75</f>
-        <v>150</v>
+        <v>152.5</v>
       </c>
       <c r="K75" s="3">
         <v>58</v>
@@ -6377,177 +6369,170 @@
       </c>
     </row>
     <row r="76" spans="1:27" ht="18" customHeight="1">
-      <c r="A76" s="5"/>
       <c r="B76" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
+        <v>56</v>
+      </c>
+      <c r="H76" s="3">
+        <v>550</v>
+      </c>
+      <c r="I76" s="3">
+        <v>61</v>
+      </c>
+      <c r="J76" s="3">
+        <f>I76*M76</f>
+        <v>152.5</v>
+      </c>
+      <c r="K76" s="3">
+        <v>58</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M76" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="N76" s="3">
+        <v>1</v>
+      </c>
+      <c r="O76" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="P76" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R76" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S76" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="T76" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U76" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V76" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W76" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X76" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y76" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z76" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA76" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" ht="18" customHeight="1">
+      <c r="B77" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77" s="3">
+        <v>0</v>
+      </c>
+      <c r="G77" s="3">
+        <v>44</v>
+      </c>
+      <c r="H77" s="3">
+        <v>650</v>
+      </c>
+      <c r="I77" s="3">
+        <v>60</v>
+      </c>
+      <c r="J77" s="3">
+        <f>I77*M77</f>
+        <v>150</v>
+      </c>
+      <c r="K77" s="3">
+        <v>58</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M77" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="N77" s="3">
+        <v>1</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="T77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA77" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" ht="18" customHeight="1">
+      <c r="B78" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E76" s="1">
-        <v>2</v>
-      </c>
-      <c r="F76" s="3">
-        <v>80</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I76" s="3">
-        <f>I78*0.85</f>
-        <v>76.5</v>
-      </c>
-      <c r="J76" s="1">
-        <f>J78*0.85</f>
-        <v>130.04999999999998</v>
-      </c>
-      <c r="K76" s="3">
-        <f>K78*0.85</f>
-        <v>55.25</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M76" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="N76" s="3">
-        <v>1</v>
-      </c>
-      <c r="O76" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="P76" s="3">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="R76" s="3">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="S76" s="3">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="T76" s="1">
-        <v>65</v>
-      </c>
-      <c r="U76" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="V76" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W76" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="X76" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y76" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z76" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA76" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27" ht="18" customHeight="1">
-      <c r="A77" s="5"/>
-      <c r="B77" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E77" s="1">
-        <v>2</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I77" s="3">
-        <f>I78*0.9</f>
-        <v>81</v>
-      </c>
-      <c r="J77" s="3">
-        <f>J78*0.9</f>
-        <v>137.70000000000002</v>
-      </c>
-      <c r="K77" s="3">
-        <f>K78*0.9</f>
-        <v>58.5</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M77" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="N77" s="3">
-        <v>1</v>
-      </c>
-      <c r="O77" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="P77" s="3">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="Q77" s="3">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="R77" s="3">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="S77" s="3">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="T77" s="1">
-        <v>65</v>
-      </c>
-      <c r="U77" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="V77" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W77" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="X77" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y77" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z77" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA77" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27" ht="18" customHeight="1">
-      <c r="A78" s="5"/>
-      <c r="B78" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>122</v>
@@ -6559,22 +6544,25 @@
         <v>2</v>
       </c>
       <c r="F78" s="3">
-        <v>540</v>
-      </c>
-      <c r="G78" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H78" s="3">
-        <v>300</v>
+      <c r="H78" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="I78" s="3">
-        <v>90</v>
-      </c>
-      <c r="J78" s="3">
-        <v>153</v>
+        <f>I80*0.85</f>
+        <v>76.5</v>
+      </c>
+      <c r="J78" s="1">
+        <f>J80*0.85</f>
+        <v>130.04999999999998</v>
       </c>
       <c r="K78" s="3">
-        <v>65</v>
+        <f>K80*0.85</f>
+        <v>55.25</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>29</v>
@@ -6626,9 +6614,8 @@
       </c>
     </row>
     <row r="79" spans="1:27" ht="18" customHeight="1">
-      <c r="A79" s="5"/>
       <c r="B79" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>122</v>
@@ -6639,8 +6626,8 @@
       <c r="E79" s="1">
         <v>2</v>
       </c>
-      <c r="F79" s="3">
-        <v>80</v>
+      <c r="F79" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>123</v>
@@ -6649,22 +6636,22 @@
         <v>123</v>
       </c>
       <c r="I79" s="3">
-        <f>I81*0.85</f>
-        <v>76.5</v>
-      </c>
-      <c r="J79" s="1">
-        <f>J81*0.85</f>
-        <v>130.04999999999998</v>
+        <f>I80*0.9</f>
+        <v>81</v>
+      </c>
+      <c r="J79" s="3">
+        <f>J80*0.9</f>
+        <v>137.70000000000002</v>
       </c>
       <c r="K79" s="3">
-        <f>K81*0.85</f>
-        <v>55.25</v>
+        <f>K80*0.9</f>
+        <v>58.5</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M79" s="3">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="N79" s="3">
         <v>1</v>
@@ -6685,7 +6672,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="T79" s="1">
-        <v>84.5</v>
+        <v>65</v>
       </c>
       <c r="U79" s="1">
         <v>0.9</v>
@@ -6710,9 +6697,8 @@
       </c>
     </row>
     <row r="80" spans="1:27" ht="18" customHeight="1">
-      <c r="A80" s="5"/>
       <c r="B80" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>122</v>
@@ -6723,32 +6709,29 @@
       <c r="E80" s="1">
         <v>2</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G80" s="1" t="s">
+      <c r="F80" s="3">
+        <v>540</v>
+      </c>
+      <c r="G80" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="H80" s="1" t="s">
-        <v>123</v>
+      <c r="H80" s="3">
+        <v>300</v>
       </c>
       <c r="I80" s="3">
-        <f>I81*0.9</f>
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J80" s="3">
-        <f>J81*0.9</f>
-        <v>137.70000000000002</v>
+        <v>153</v>
       </c>
       <c r="K80" s="3">
-        <f>K81*0.9</f>
-        <v>58.5</v>
+        <v>65</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M80" s="3">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="N80" s="3">
         <v>1</v>
@@ -6769,7 +6752,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="T80" s="1">
-        <v>84.5</v>
+        <v>65</v>
       </c>
       <c r="U80" s="1">
         <v>0.9</v>
@@ -6794,9 +6777,8 @@
       </c>
     </row>
     <row r="81" spans="1:27" ht="18" customHeight="1">
-      <c r="A81" s="5"/>
       <c r="B81" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>122</v>
@@ -6808,23 +6790,25 @@
         <v>2</v>
       </c>
       <c r="F81" s="3">
-        <v>460</v>
-      </c>
-      <c r="G81" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H81" s="3">
-        <f>H78*1.3</f>
-        <v>390</v>
+      <c r="H81" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="I81" s="3">
-        <v>90</v>
-      </c>
-      <c r="J81" s="3">
-        <v>153</v>
+        <f>I83*0.85</f>
+        <v>76.5</v>
+      </c>
+      <c r="J81" s="1">
+        <f>J83*0.85</f>
+        <v>130.04999999999998</v>
       </c>
       <c r="K81" s="3">
-        <v>65</v>
+        <f>K83*0.85</f>
+        <v>55.25</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>29</v>
@@ -6876,239 +6860,237 @@
       </c>
     </row>
     <row r="82" spans="1:27" ht="18" customHeight="1">
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="6"/>
-      <c r="R82" s="6"/>
-      <c r="S82" s="6"/>
-      <c r="T82" s="6"/>
-      <c r="U82" s="6"/>
-      <c r="V82" s="6"/>
-      <c r="W82" s="6"/>
-      <c r="X82" s="6"/>
-      <c r="Y82" s="6"/>
-      <c r="Z82" s="6"/>
-      <c r="AA82" s="6"/>
+      <c r="B82" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E82" s="1">
+        <v>2</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I82" s="3">
+        <f>I83*0.9</f>
+        <v>81</v>
+      </c>
+      <c r="J82" s="3">
+        <f>J83*0.9</f>
+        <v>137.70000000000002</v>
+      </c>
+      <c r="K82" s="3">
+        <f>K83*0.9</f>
+        <v>58.5</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M82" s="3">
+        <v>2</v>
+      </c>
+      <c r="N82" s="3">
+        <v>1</v>
+      </c>
+      <c r="O82" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="P82" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Q82" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="R82" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="S82" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T82" s="1">
+        <v>84.5</v>
+      </c>
+      <c r="U82" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="V82" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W82" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X82" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y82" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z82" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA82" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="83" spans="1:27" ht="18" customHeight="1">
-      <c r="A83" s="4" t="s">
+      <c r="B83" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E83" s="1">
+        <v>2</v>
+      </c>
+      <c r="F83" s="3">
+        <v>460</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H83" s="3">
+        <f>H80*1.3</f>
+        <v>390</v>
+      </c>
+      <c r="I83" s="3">
+        <v>90</v>
+      </c>
+      <c r="J83" s="3">
+        <v>153</v>
+      </c>
+      <c r="K83" s="3">
+        <v>65</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M83" s="3">
+        <v>2</v>
+      </c>
+      <c r="N83" s="3">
+        <v>1</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T83" s="1">
+        <v>84.5</v>
+      </c>
+      <c r="U83" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="V83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA83" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" ht="18" customHeight="1">
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="5"/>
+      <c r="S84" s="5"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="5"/>
+      <c r="V84" s="5"/>
+      <c r="W84" s="5"/>
+      <c r="X84" s="5"/>
+      <c r="Y84" s="5"/>
+      <c r="Z84" s="5"/>
+      <c r="AA84" s="5"/>
+    </row>
+    <row r="85" spans="1:27" ht="18" customHeight="1">
+      <c r="A85" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="84" spans="1:27" ht="18" customHeight="1">
-      <c r="B84" s="1" t="s">
+    <row r="86" spans="1:27" ht="18" customHeight="1">
+      <c r="B86" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E86" s="1">
         <v>2</v>
-      </c>
-      <c r="F84" s="3">
-        <v>0</v>
-      </c>
-      <c r="G84" s="3">
-        <v>373</v>
-      </c>
-      <c r="H84" s="3">
-        <v>400</v>
-      </c>
-      <c r="I84" s="3">
-        <v>40</v>
-      </c>
-      <c r="J84" s="3">
-        <f t="shared" ref="J84:J89" si="8">ROUND(I84*G84/60,2)</f>
-        <v>248.67</v>
-      </c>
-      <c r="K84" s="3">
-        <v>30</v>
-      </c>
-      <c r="L84" s="3">
-        <f t="shared" ref="L84:L89" si="9">ROUND(K84*G84/60,2)</f>
-        <v>186.5</v>
-      </c>
-      <c r="M84" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="N84" s="3">
-        <v>1</v>
-      </c>
-      <c r="O84" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="P84" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="Q84" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="R84" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="S84" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="T84" s="3">
-        <v>15</v>
-      </c>
-      <c r="U84" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="V84" s="3">
-        <v>25</v>
-      </c>
-      <c r="W84" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="X84" s="3">
-        <v>35</v>
-      </c>
-      <c r="Y84" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Z84" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA84" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="85" spans="1:27" ht="18" customHeight="1">
-      <c r="A85" s="5"/>
-      <c r="B85" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E85" s="1">
-        <v>2</v>
-      </c>
-      <c r="F85" s="3">
-        <v>0</v>
-      </c>
-      <c r="G85" s="3">
-        <v>462</v>
-      </c>
-      <c r="H85" s="3">
-        <v>400</v>
-      </c>
-      <c r="I85" s="3">
-        <v>27</v>
-      </c>
-      <c r="J85" s="3">
-        <f t="shared" si="8"/>
-        <v>207.9</v>
-      </c>
-      <c r="K85" s="3">
-        <v>25</v>
-      </c>
-      <c r="L85" s="3">
-        <f t="shared" si="9"/>
-        <v>192.5</v>
-      </c>
-      <c r="M85" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="N85" s="3">
-        <v>1</v>
-      </c>
-      <c r="O85" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="P85" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="Q85" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="R85" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="S85" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="T85" s="3">
-        <v>27</v>
-      </c>
-      <c r="U85" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="V85" s="3">
-        <v>54</v>
-      </c>
-      <c r="W85" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="X85" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y85" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z85" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA85" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="86" spans="1:27" ht="18" customHeight="1">
-      <c r="A86" s="5"/>
-      <c r="B86" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E86" s="1">
-        <v>1</v>
       </c>
       <c r="F86" s="3">
         <v>0</v>
       </c>
       <c r="G86" s="3">
-        <v>1172</v>
+        <v>373</v>
       </c>
       <c r="H86" s="3">
         <v>400</v>
       </c>
       <c r="I86" s="3">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="J86" s="3">
-        <f t="shared" si="8"/>
-        <v>449.27</v>
+        <f t="shared" ref="J86:J91" si="10">ROUND(I86*G86/60,2)</f>
+        <v>248.67</v>
       </c>
       <c r="K86" s="3">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="L86" s="3">
-        <f t="shared" si="9"/>
-        <v>312.52999999999997</v>
+        <f t="shared" ref="L86:L91" si="11">ROUND(K86*G86/60,2)</f>
+        <v>186.5</v>
       </c>
       <c r="M86" s="3">
         <v>1.9</v>
@@ -7132,22 +7114,22 @@
         <v>0.4</v>
       </c>
       <c r="T86" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U86" s="3">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="V86" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="W86" s="3">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="X86" s="3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y86" s="3">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="Z86" s="1" t="s">
         <v>29</v>
@@ -7157,12 +7139,11 @@
       </c>
     </row>
     <row r="87" spans="1:27" ht="18" customHeight="1">
-      <c r="A87" s="5"/>
       <c r="B87" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>86</v>
@@ -7174,27 +7155,27 @@
         <v>0</v>
       </c>
       <c r="G87" s="3">
-        <v>207</v>
+        <v>462</v>
       </c>
       <c r="H87" s="3">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="I87" s="3">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="J87" s="3">
-        <f t="shared" si="8"/>
-        <v>193.2</v>
+        <f t="shared" si="10"/>
+        <v>207.9</v>
       </c>
       <c r="K87" s="3">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="L87" s="3">
-        <f t="shared" si="9"/>
-        <v>182.85</v>
+        <f t="shared" si="11"/>
+        <v>192.5</v>
       </c>
       <c r="M87" s="3">
-        <v>2.2000000000000002</v>
+        <v>1.9</v>
       </c>
       <c r="N87" s="3">
         <v>1</v>
@@ -7215,13 +7196,13 @@
         <v>0.4</v>
       </c>
       <c r="T87" s="3">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="U87" s="3">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="V87" s="3">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="W87" s="3">
         <v>0.6</v>
@@ -7240,44 +7221,43 @@
       </c>
     </row>
     <row r="88" spans="1:27" ht="18" customHeight="1">
-      <c r="A88" s="5"/>
       <c r="B88" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E88" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G88" s="3">
-        <v>182</v>
+        <v>1172</v>
       </c>
       <c r="H88" s="3">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="I88" s="3">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J88" s="3">
-        <f t="shared" si="8"/>
-        <v>169.87</v>
+        <f t="shared" si="10"/>
+        <v>449.27</v>
       </c>
       <c r="K88" s="3">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="L88" s="3">
-        <f t="shared" si="9"/>
-        <v>118.3</v>
+        <f t="shared" si="11"/>
+        <v>312.52999999999997</v>
       </c>
       <c r="M88" s="3">
-        <v>2.2000000000000002</v>
+        <v>1.9</v>
       </c>
       <c r="N88" s="3">
         <v>1</v>
@@ -7298,22 +7278,22 @@
         <v>0.4</v>
       </c>
       <c r="T88" s="3">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="U88" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="V88" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W88" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="X88" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y88" s="1" t="s">
-        <v>29</v>
+        <v>0.85</v>
+      </c>
+      <c r="V88" s="3">
+        <v>20</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="X88" s="3">
+        <v>30</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0.6</v>
       </c>
       <c r="Z88" s="1" t="s">
         <v>29</v>
@@ -7323,12 +7303,11 @@
       </c>
     </row>
     <row r="89" spans="1:27" ht="18" customHeight="1">
-      <c r="A89" s="5"/>
       <c r="B89" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>86</v>
@@ -7340,27 +7319,27 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>375</v>
+        <v>207</v>
       </c>
       <c r="H89" s="3">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="I89" s="3">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="J89" s="3">
-        <f t="shared" si="8"/>
-        <v>212.5</v>
+        <f t="shared" si="10"/>
+        <v>193.2</v>
       </c>
       <c r="K89" s="3">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="L89" s="3">
-        <f t="shared" si="9"/>
-        <v>200</v>
+        <f t="shared" si="11"/>
+        <v>182.85</v>
       </c>
       <c r="M89" s="3">
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N89" s="3">
         <v>1</v>
@@ -7381,13 +7360,13 @@
         <v>0.4</v>
       </c>
       <c r="T89" s="3">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="U89" s="3">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="V89" s="3">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="W89" s="3">
         <v>0.6</v>
@@ -7406,284 +7385,446 @@
       </c>
     </row>
     <row r="90" spans="1:27" ht="18" customHeight="1">
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
-      <c r="M90" s="6"/>
-      <c r="N90" s="6"/>
-      <c r="O90" s="6"/>
-      <c r="P90" s="6"/>
-      <c r="Q90" s="6"/>
-      <c r="R90" s="6"/>
-      <c r="S90" s="6"/>
-      <c r="T90" s="6"/>
-      <c r="U90" s="6"/>
-      <c r="V90" s="6"/>
-      <c r="W90" s="6"/>
-      <c r="X90" s="6"/>
-      <c r="Y90" s="6"/>
-      <c r="Z90" s="6"/>
-      <c r="AA90" s="6"/>
+      <c r="B90" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E90" s="1">
+        <v>2</v>
+      </c>
+      <c r="F90" s="3">
+        <v>100</v>
+      </c>
+      <c r="G90" s="3">
+        <v>182</v>
+      </c>
+      <c r="H90" s="3">
+        <v>340</v>
+      </c>
+      <c r="I90" s="3">
+        <v>56</v>
+      </c>
+      <c r="J90" s="3">
+        <f t="shared" si="10"/>
+        <v>169.87</v>
+      </c>
+      <c r="K90" s="3">
+        <v>39</v>
+      </c>
+      <c r="L90" s="3">
+        <f t="shared" si="11"/>
+        <v>118.3</v>
+      </c>
+      <c r="M90" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N90" s="3">
+        <v>1</v>
+      </c>
+      <c r="O90" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="P90" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Q90" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R90" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S90" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="T90" s="3">
+        <v>35</v>
+      </c>
+      <c r="U90" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="V90" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W90" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X90" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y90" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z90" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA90" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="91" spans="1:27" ht="18" customHeight="1">
-      <c r="A91" s="4" t="s">
+      <c r="B91" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E91" s="1">
+        <v>2</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>375</v>
+      </c>
+      <c r="H91" s="3">
+        <v>400</v>
+      </c>
+      <c r="I91" s="3">
+        <v>34</v>
+      </c>
+      <c r="J91" s="3">
+        <f t="shared" si="10"/>
+        <v>212.5</v>
+      </c>
+      <c r="K91" s="3">
+        <v>32</v>
+      </c>
+      <c r="L91" s="3">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
+      <c r="M91" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="N91" s="3">
+        <v>1</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="T91" s="3">
+        <v>27</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="V91" s="3">
+        <v>54</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="X91" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y91" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z91" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA91" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" ht="18" customHeight="1">
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="5"/>
+      <c r="R92" s="5"/>
+      <c r="S92" s="5"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="5"/>
+      <c r="V92" s="5"/>
+      <c r="W92" s="5"/>
+      <c r="X92" s="5"/>
+      <c r="Y92" s="5"/>
+      <c r="Z92" s="5"/>
+      <c r="AA92" s="5"/>
+    </row>
+    <row r="93" spans="1:27" ht="18" customHeight="1">
+      <c r="A93" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="92" spans="1:27" ht="18" customHeight="1">
-      <c r="B92" s="1" t="s">
+    <row r="94" spans="1:27" ht="18" customHeight="1">
+      <c r="B94" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="F92" s="3">
-        <v>0</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H92" s="3">
-        <v>575</v>
-      </c>
-      <c r="I92" s="3">
-        <v>33</v>
-      </c>
-      <c r="J92" s="3">
-        <f>I92*3</f>
-        <v>99</v>
-      </c>
-      <c r="K92" s="3">
-        <v>39</v>
-      </c>
-      <c r="L92" s="3">
-        <f>K92*3</f>
-        <v>117</v>
-      </c>
-      <c r="M92" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="N92" s="3">
-        <v>1</v>
-      </c>
-      <c r="O92" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="P92" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="Q92" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="R92" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="S92" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="T92" s="3">
-        <v>55</v>
-      </c>
-      <c r="U92" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="V92" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W92" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="X92" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y92" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z92" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA92" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="93" spans="1:27" ht="18" customHeight="1">
-      <c r="A93" s="5"/>
-      <c r="B93" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F93" s="3">
-        <v>0</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H93" s="3">
-        <v>400</v>
-      </c>
-      <c r="I93" s="3">
-        <v>34</v>
-      </c>
-      <c r="J93" s="3">
-        <f>I93*3</f>
-        <v>102</v>
-      </c>
-      <c r="K93" s="3">
-        <v>32</v>
-      </c>
-      <c r="L93" s="3">
-        <f>K93*3</f>
-        <v>96</v>
-      </c>
-      <c r="M93" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="N93" s="3">
-        <v>1</v>
-      </c>
-      <c r="O93" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="P93" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="Q93" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="R93" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="S93" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="T93" s="3">
-        <v>22</v>
-      </c>
-      <c r="U93" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="V93" s="3">
-        <v>44</v>
-      </c>
-      <c r="W93" s="3">
-        <v>0.65</v>
-      </c>
-      <c r="X93" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y93" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z93" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA93" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="94" spans="1:27" ht="18" customHeight="1">
-      <c r="A94" s="5"/>
-      <c r="B94" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E94" s="1">
-        <v>2</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H94" s="3">
+        <v>575</v>
+      </c>
+      <c r="I94" s="3">
+        <v>33</v>
+      </c>
+      <c r="J94" s="3">
+        <f>I94*3</f>
+        <v>99</v>
+      </c>
+      <c r="K94" s="3">
+        <v>39</v>
+      </c>
+      <c r="L94" s="3">
+        <f>K94*3</f>
+        <v>117</v>
+      </c>
+      <c r="M94" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="N94" s="3">
+        <v>1</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="T94" s="3">
+        <v>55</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="V94" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W94" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X94" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y94" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z94" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA94" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" ht="18" customHeight="1">
+      <c r="B95" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F95" s="3">
+        <v>0</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H95" s="3">
+        <v>400</v>
+      </c>
+      <c r="I95" s="3">
+        <v>34</v>
+      </c>
+      <c r="J95" s="3">
+        <f>I95*3</f>
+        <v>102</v>
+      </c>
+      <c r="K95" s="3">
+        <v>32</v>
+      </c>
+      <c r="L95" s="3">
+        <f>K95*3</f>
+        <v>96</v>
+      </c>
+      <c r="M95" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="N95" s="3">
+        <v>1</v>
+      </c>
+      <c r="O95" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="P95" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Q95" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R95" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S95" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="T95" s="3">
+        <v>22</v>
+      </c>
+      <c r="U95" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="V95" s="3">
+        <v>44</v>
+      </c>
+      <c r="W95" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="X95" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y95" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z95" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA95" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27" ht="18" customHeight="1">
+      <c r="B96" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E96" s="1">
+        <v>2</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>375</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H96" s="3">
         <v>400</v>
       </c>
-      <c r="I94" s="1">
+      <c r="I96" s="1">
         <v>17</v>
       </c>
-      <c r="J94" s="3">
-        <f>2*I94*8</f>
+      <c r="J96" s="3">
+        <f>2*I96*8</f>
         <v>272</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K96" s="3">
         <f>18</f>
         <v>18</v>
       </c>
-      <c r="L94" s="3">
-        <f>2*K94*8</f>
+      <c r="L96" s="3">
+        <f>2*K96*8</f>
         <v>288</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M96" s="3">
         <v>1.9</v>
       </c>
-      <c r="N94" s="3">
-        <v>1</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="N96" s="3">
+        <v>1</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="T96" s="3">
         <v>50</v>
       </c>
-      <c r="U94" s="3">
+      <c r="U96" s="3">
         <v>0.8</v>
       </c>
-      <c r="V94" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W94" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="X94" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y94" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z94" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA94" s="1" t="s">
+      <c r="V96" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W96" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X96" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y96" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z96" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA96" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7691,10 +7832,10 @@
   <mergeCells count="7">
     <mergeCell ref="B29:AA29"/>
     <mergeCell ref="B43:AA43"/>
-    <mergeCell ref="B90:AA90"/>
-    <mergeCell ref="B57:AA57"/>
-    <mergeCell ref="B70:AA70"/>
-    <mergeCell ref="B82:AA82"/>
+    <mergeCell ref="B92:AA92"/>
+    <mergeCell ref="B58:AA58"/>
+    <mergeCell ref="B72:AA72"/>
+    <mergeCell ref="B84:AA84"/>
     <mergeCell ref="B48:AA48"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
